--- a/第一金證/第一金控串接網址.xlsx
+++ b/第一金證/第一金控串接網址.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcwang\Desktop\CustomeFile\第一金證\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB970344-63D9-4448-B8E8-ECA5D9043403}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="20475" windowHeight="8970"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="20475" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="網址" sheetId="1" r:id="rId1"/>
@@ -518,10 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testsite.moneydj.com/z/skv.djhtm?ASPID=FIRST&amp;showAll=0&amp;overlay=0&amp;showTable=1&amp;showLogo=1&amp;w=260&amp;h=210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/z/js/firstsecfundnews.djjs?A=新聞類型&amp;B=筆數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,13 +607,18 @@
   </si>
   <si>
     <t>/z/zc/zca/zca.djhtm?A=股號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式區: http://jpc.moneydj.com/z/skv.djhtm?ASPID=FIRST&amp;showAll=0&amp;overlay=0&amp;showTable=1&amp;showLogo=1&amp;w=260&amp;h=210
+測試區: http://testsite.moneydj.com/z/skv.djhtm?ASPID=FIRST&amp;showAll=0&amp;overlay=0&amp;showTable=1&amp;showLogo=1&amp;w=260&amp;h=210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -746,7 +753,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,16 +832,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -883,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -916,9 +929,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -951,6 +981,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1126,11 +1173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1186,7 @@
     <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="125.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -1165,17 +1212,17 @@
         <v>155</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>164</v>
+      <c r="E4" s="26" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1807,7 +1854,7 @@
         <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
@@ -1817,7 +1864,7 @@
         <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
@@ -1827,7 +1874,7 @@
         <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
@@ -1837,7 +1884,7 @@
         <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
@@ -1847,7 +1894,7 @@
         <v>128</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
@@ -1857,7 +1904,7 @@
         <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
@@ -1867,7 +1914,7 @@
         <v>130</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
@@ -1877,7 +1924,7 @@
         <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
@@ -1887,7 +1934,7 @@
         <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
@@ -1897,7 +1944,7 @@
         <v>133</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
@@ -1909,7 +1956,7 @@
         <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
@@ -1919,7 +1966,7 @@
         <v>136</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
@@ -1929,7 +1976,7 @@
         <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
@@ -1939,7 +1986,7 @@
         <v>138</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
@@ -1949,7 +1996,7 @@
         <v>139</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
@@ -1959,7 +2006,7 @@
         <v>140</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
@@ -1969,7 +2016,7 @@
         <v>133</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1981,7 +2028,7 @@
         <v>142</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
@@ -1991,7 +2038,7 @@
         <v>143</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
@@ -2001,7 +2048,7 @@
         <v>144</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
@@ -2011,7 +2058,7 @@
         <v>145</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
@@ -2021,7 +2068,7 @@
         <v>146</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
@@ -2031,7 +2078,7 @@
         <v>147</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
@@ -2041,7 +2088,7 @@
         <v>148</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
@@ -2051,7 +2098,7 @@
         <v>149</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
@@ -2063,7 +2110,7 @@
         <v>151</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
@@ -2073,7 +2120,7 @@
         <v>152</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2083,7 +2130,7 @@
         <v>153</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
